--- a/table_sound1_strings.xlsx
+++ b/table_sound1_strings.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Grace/Documents/GitHub/ECoG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertjquon/Desktop/ECoG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAA84F-F007-8E49-BEC5-5F31B5EBDD3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="600" windowWidth="24980" windowHeight="17280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="600" windowWidth="24980" windowHeight="17280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -579,11 +578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6906,6 +6905,9 @@
       <c r="F265" s="1"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C266">
+        <v>1</v>
+      </c>
       <c r="F266" s="1"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
